--- a/raw_data/20200818_saline/20200818_Sensor0_Test_3.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_3.xlsx
@@ -1,1384 +1,1800 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A892B-F6E0-4214-9C4F-7ABC25643ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>1802.857129</v>
       </c>
       <c r="B2" s="1">
-        <v>0.500794</v>
+        <v>0.50079399999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>901.174000</v>
+        <v>901.17399999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.847000</v>
+        <v>-197.84700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1813.264716</v>
+        <v>1813.2647159999999</v>
       </c>
       <c r="G2" s="1">
-        <v>0.503685</v>
+        <v>0.50368500000000005</v>
       </c>
       <c r="H2" s="1">
-        <v>918.112000</v>
+        <v>918.11199999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.478000</v>
+        <v>-167.47800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>1823.681662</v>
       </c>
       <c r="L2" s="1">
-        <v>0.506578</v>
+        <v>0.50657799999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>940.542000</v>
+        <v>940.54200000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.265000</v>
+        <v>-120.265</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1833.872999</v>
+        <v>1833.8729989999999</v>
       </c>
       <c r="Q2" s="1">
         <v>0.509409</v>
       </c>
       <c r="R2" s="1">
-        <v>947.292000</v>
+        <v>947.29200000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.502000</v>
+        <v>-104.502</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1844.445683</v>
+        <v>1844.4456829999999</v>
       </c>
       <c r="V2" s="1">
-        <v>0.512346</v>
+        <v>0.51234599999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>953.775000</v>
+        <v>953.77499999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.400500</v>
+        <v>-90.400499999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>1855.192035</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.515331</v>
+        <v>0.51533099999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.043000</v>
+        <v>961.04300000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.426600</v>
+        <v>-80.426599999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>1865.769688</v>
+        <v>1865.7696880000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.518269</v>
+        <v>0.51826899999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.982000</v>
+        <v>965.98199999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.681300</v>
+        <v>-79.681299999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1875.904938</v>
+        <v>1875.9049379999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.521085</v>
+        <v>0.52108500000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.928000</v>
+        <v>973.928</v>
       </c>
       <c r="AM2" s="1">
-        <v>-86.916200</v>
+        <v>-86.916200000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>1886.453882</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.524015</v>
+        <v>0.52401500000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.054000</v>
+        <v>983.05399999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.296000</v>
+        <v>-101.29600000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>1897.079149</v>
+        <v>1897.0791489999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.526966</v>
+        <v>0.52696600000000005</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.365000</v>
+        <v>994.36500000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-122.167000</v>
+        <v>-122.167</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>1907.867136</v>
+        <v>1907.8671360000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.529963</v>
+        <v>0.52996299999999996</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.860000</v>
+        <v>1003.86</v>
       </c>
       <c r="BB2" s="1">
-        <v>-140.379000</v>
+        <v>-140.37899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>1918.741920</v>
+        <v>1918.7419199999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.532984</v>
+        <v>0.53298400000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.310000</v>
+        <v>1048.31</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.958000</v>
+        <v>-222.958</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1929.812626</v>
+        <v>1929.8126259999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.536059</v>
+        <v>0.53605899999999995</v>
       </c>
       <c r="BK2" s="1">
-        <v>1126.140000</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.785000</v>
+        <v>-355.78500000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>1940.498469</v>
+        <v>1940.4984690000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.539027</v>
+        <v>0.53902700000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-561.069000</v>
+        <v>-561.06899999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>1951.628020</v>
+        <v>1951.6280200000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.542119</v>
+        <v>0.54211900000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1400.360000</v>
+        <v>1400.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-780.046000</v>
+        <v>-780.04600000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>1962.280774</v>
+        <v>1962.2807740000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.545078</v>
+        <v>0.54507799999999995</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1558.800000</v>
+        <v>1558.8</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1008.030000</v>
+        <v>-1008.03</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>1973.175865</v>
+        <v>1973.1758649999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.548104</v>
+        <v>0.54810400000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1959.740000</v>
+        <v>1959.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1538.190000</v>
+        <v>-1538.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>1803.262393</v>
       </c>
       <c r="B3" s="1">
-        <v>0.500906</v>
+        <v>0.50090599999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>901.213000</v>
+        <v>901.21299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.772000</v>
+        <v>-197.77199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1813.614861</v>
       </c>
       <c r="G3" s="1">
-        <v>0.503782</v>
+        <v>0.50378199999999995</v>
       </c>
       <c r="H3" s="1">
-        <v>917.762000</v>
+        <v>917.76199999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.816000</v>
+        <v>-167.816</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>1824.061101</v>
       </c>
       <c r="L3" s="1">
-        <v>0.506684</v>
+        <v>0.50668400000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>940.487000</v>
+        <v>940.48699999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.169000</v>
+        <v>-120.169</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1834.562400</v>
+        <v>1834.5624</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.509601</v>
+        <v>0.50960099999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>947.346000</v>
+        <v>947.346</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.548000</v>
+        <v>-104.548</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1845.094451</v>
+        <v>1845.0944509999999</v>
       </c>
       <c r="V3" s="1">
-        <v>0.512526</v>
+        <v>0.51252600000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>953.789000</v>
+        <v>953.78899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.497700</v>
+        <v>-90.497699999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1855.619060</v>
+        <v>1855.61906</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.515450</v>
+        <v>0.51544999999999996</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.973000</v>
+        <v>960.97299999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.383000</v>
+        <v>-80.382999999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1866.117382</v>
+        <v>1866.1173819999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.518366</v>
+        <v>0.51836599999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.988000</v>
+        <v>965.98800000000006</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.649900</v>
+        <v>-79.649900000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1876.256104</v>
+        <v>1876.2561040000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.521182</v>
+        <v>0.52118200000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.930000</v>
+        <v>973.93</v>
       </c>
       <c r="AM3" s="1">
-        <v>-86.920800</v>
+        <v>-86.9208</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1886.843706</v>
+        <v>1886.8437060000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.524123</v>
+        <v>0.52412300000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.077000</v>
+        <v>983.077</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.285000</v>
+        <v>-101.285</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>1897.470990</v>
+        <v>1897.47099</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.527075</v>
+        <v>0.52707499999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.354000</v>
+        <v>994.35400000000004</v>
       </c>
       <c r="AW3" s="1">
-        <v>-122.154000</v>
+        <v>-122.154</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1908.281310</v>
+        <v>1908.2813100000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.530078</v>
+        <v>0.53007800000000005</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB3" s="1">
-        <v>-140.380000</v>
+        <v>-140.38</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>1919.172943</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.533104</v>
+        <v>0.53310400000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.350000</v>
+        <v>1048.3499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.980000</v>
+        <v>-222.98</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>1929.921282</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.536089</v>
+        <v>0.53608900000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1126.160000</v>
+        <v>1126.1600000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.821000</v>
+        <v>-355.82100000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1940.903668</v>
+        <v>1940.9036679999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.539140</v>
+        <v>0.53913999999999995</v>
       </c>
       <c r="BP3" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-561.068000</v>
+        <v>-561.06799999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>1952.063652</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.542240</v>
+        <v>0.54224000000000006</v>
       </c>
       <c r="BU3" s="1">
-        <v>1400.210000</v>
+        <v>1400.21</v>
       </c>
       <c r="BV3" s="1">
-        <v>-780.133000</v>
+        <v>-780.13300000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>1962.742518</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.545206</v>
+        <v>0.54520599999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1558.840000</v>
+        <v>1558.84</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1008.000000</v>
+        <v>-1008</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>1973.742297</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.548262</v>
+        <v>0.54826200000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>1959.500000</v>
+        <v>1959.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1538.640000</v>
+        <v>-1538.64</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>1803.632408</v>
+        <v>1803.6324079999999</v>
       </c>
       <c r="B4" s="1">
-        <v>0.501009</v>
+        <v>0.50100900000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>901.089000</v>
+        <v>901.08900000000006</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.854000</v>
+        <v>-197.85400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1813.958092</v>
+        <v>1813.9580920000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.503877</v>
+        <v>0.50387700000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>917.783000</v>
+        <v>917.78300000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.741000</v>
+        <v>-167.74100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1824.716317</v>
+        <v>1824.7163169999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.506866</v>
+        <v>0.50686600000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>940.452000</v>
+        <v>940.452</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.128000</v>
+        <v>-120.128</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1834.956256</v>
+        <v>1834.9562559999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.509710</v>
+        <v>0.50971</v>
       </c>
       <c r="R4" s="1">
-        <v>947.323000</v>
+        <v>947.32299999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.578000</v>
+        <v>-104.578</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1845.482850</v>
+        <v>1845.4828500000001</v>
       </c>
       <c r="V4" s="1">
-        <v>0.512634</v>
+        <v>0.51263400000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>953.799000</v>
+        <v>953.79899999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.518200</v>
+        <v>-90.518199999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1855.971715</v>
+        <v>1855.9717149999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.515548</v>
+        <v>0.51554800000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.954000</v>
+        <v>960.95399999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.503000</v>
+        <v>-80.503</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1866.459125</v>
+        <v>1866.4591250000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.518461</v>
+        <v>0.51846099999999995</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.015000</v>
+        <v>966.01499999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.671900</v>
+        <v>-79.671899999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1876.605289</v>
+        <v>1876.6052890000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.521279</v>
+        <v>0.52127900000000005</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.934000</v>
+        <v>973.93399999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-86.907000</v>
+        <v>-86.906999999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>1887.259850</v>
+        <v>1887.2598499999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.524239</v>
+        <v>0.52423900000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.056000</v>
+        <v>983.05600000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.291000</v>
+        <v>-101.291</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>1897.950125</v>
+        <v>1897.9501250000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.527208</v>
+        <v>0.52720800000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.349000</v>
+        <v>994.34900000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-122.158000</v>
+        <v>-122.158</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1908.602239</v>
+        <v>1908.6022390000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.530167</v>
+        <v>0.53016700000000005</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB4" s="1">
-        <v>-140.375000</v>
+        <v>-140.375</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>1919.535519</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.533204</v>
+        <v>0.53320400000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.330000</v>
+        <v>1048.33</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.973000</v>
+        <v>-222.97300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1930.280353</v>
+        <v>1930.2803530000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.536189</v>
+        <v>0.53618900000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1126.110000</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.774000</v>
+        <v>-355.774</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1941.316338</v>
+        <v>1941.3163380000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.539255</v>
+        <v>0.53925500000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1255.080000</v>
+        <v>1255.08</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-561.128000</v>
+        <v>-561.12800000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>1952.497157</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.542360</v>
+        <v>0.54235999999999995</v>
       </c>
       <c r="BU4" s="1">
-        <v>1400.280000</v>
+        <v>1400.28</v>
       </c>
       <c r="BV4" s="1">
-        <v>-780.289000</v>
+        <v>-780.28899999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1963.191398</v>
+        <v>1963.1913979999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.545331</v>
+        <v>0.54533100000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1558.910000</v>
+        <v>1558.91</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1008.000000</v>
+        <v>-1008</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>1974.257676</v>
+        <v>1974.2576759999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.548405</v>
+        <v>0.54840500000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>1958.840000</v>
+        <v>1958.84</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1539.540000</v>
+        <v>-1539.54</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>1804.273716</v>
+        <v>1804.2737159999999</v>
       </c>
       <c r="B5" s="1">
-        <v>0.501187</v>
+        <v>0.50118700000000005</v>
       </c>
       <c r="C5" s="1">
-        <v>901.105000</v>
+        <v>901.10500000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.748000</v>
+        <v>-197.74799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1814.622235</v>
       </c>
       <c r="G5" s="1">
-        <v>0.504062</v>
+        <v>0.50406200000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.068000</v>
+        <v>918.06799999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.399000</v>
+        <v>-167.399</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1825.096780</v>
+        <v>1825.0967800000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.506971</v>
+        <v>0.50697099999999995</v>
       </c>
       <c r="M5" s="1">
-        <v>940.445000</v>
+        <v>940.44500000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.152000</v>
+        <v>-120.152</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1835.305406</v>
+        <v>1835.3054059999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.509807</v>
+        <v>0.50980700000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>947.274000</v>
+        <v>947.274</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.574000</v>
+        <v>-104.574</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1845.824560</v>
+        <v>1845.82456</v>
       </c>
       <c r="V5" s="1">
-        <v>0.512729</v>
+        <v>0.51272899999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>953.775000</v>
+        <v>953.77499999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.393100</v>
+        <v>-90.393100000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>1856.317955</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.515644</v>
+        <v>0.51564399999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.105000</v>
+        <v>961.10500000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.457700</v>
+        <v>-80.457700000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>1866.876794</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.518577</v>
+        <v>0.51857699999999995</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.988000</v>
+        <v>965.98800000000006</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.717000</v>
+        <v>-79.716999999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1877.023943</v>
+        <v>1877.0239429999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.521396</v>
+        <v>0.52139599999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.923000</v>
+        <v>973.923</v>
       </c>
       <c r="AM5" s="1">
-        <v>-86.928400</v>
+        <v>-86.928399999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>1887.564889</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.524324</v>
+        <v>0.52432400000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.094000</v>
+        <v>983.09400000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.293000</v>
+        <v>-101.29300000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>1898.210065</v>
@@ -1387,542 +1803,542 @@
         <v>0.527281</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.341000</v>
+        <v>994.34100000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-122.163000</v>
+        <v>-122.163</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>1908.958333</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.530266</v>
+        <v>0.53026600000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.860000</v>
+        <v>1003.86</v>
       </c>
       <c r="BB5" s="1">
-        <v>-140.368000</v>
+        <v>-140.36799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1919.894126</v>
+        <v>1919.8941259999999</v>
       </c>
       <c r="BE5" s="1">
         <v>0.533304</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.350000</v>
+        <v>1048.3499999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.974000</v>
+        <v>-222.97399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>1930.642432</v>
+        <v>1930.6424320000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.536290</v>
+        <v>0.53629000000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1126.140000</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.754000</v>
+        <v>-355.75400000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1941.726567</v>
+        <v>1941.7265669999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.539368</v>
+        <v>0.53936799999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-561.130000</v>
+        <v>-561.13</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>1952.907843</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.542474</v>
+        <v>0.54247400000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1400.240000</v>
+        <v>1400.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-780.380000</v>
+        <v>-780.38</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>1963.623952</v>
+        <v>1963.6239519999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.545451</v>
+        <v>0.54545100000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1558.790000</v>
+        <v>1558.79</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1008.090000</v>
+        <v>-1008.09</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>1974.778973</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.548550</v>
+        <v>0.54854999999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1960.350000</v>
+        <v>1960.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1539.640000</v>
+        <v>-1539.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>1804.655127</v>
       </c>
       <c r="B6" s="1">
-        <v>0.501293</v>
+        <v>0.50129299999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>901.110000</v>
+        <v>901.11</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.854000</v>
+        <v>-197.85400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>1814.987785</v>
       </c>
       <c r="G6" s="1">
-        <v>0.504163</v>
+        <v>0.50416300000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>918.088000</v>
+        <v>918.08799999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.559000</v>
+        <v>-167.559</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1825.444973</v>
+        <v>1825.4449729999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.507068</v>
+        <v>0.50706799999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>940.409000</v>
+        <v>940.40899999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.298000</v>
+        <v>-120.298</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>1835.654094</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.509904</v>
+        <v>0.50990400000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>947.312000</v>
+        <v>947.31200000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.518000</v>
+        <v>-104.518</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1846.169280</v>
+        <v>1846.1692800000001</v>
       </c>
       <c r="V6" s="1">
-        <v>0.512825</v>
+        <v>0.51282499999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>953.769000</v>
+        <v>953.76900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.468000</v>
+        <v>-90.468000000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1856.733570</v>
+        <v>1856.7335700000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.515759</v>
+        <v>0.51575899999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.120000</v>
+        <v>961.12</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.524800</v>
+        <v>-80.524799999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1867.159477</v>
+        <v>1867.1594769999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.518655</v>
+        <v>0.51865499999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.011000</v>
+        <v>966.01099999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.694000</v>
+        <v>-79.694000000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>1877.305143</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.521474</v>
+        <v>0.52147399999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.927000</v>
+        <v>973.92700000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-86.935000</v>
+        <v>-86.935000000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1887.923529</v>
+        <v>1887.9235289999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.524423</v>
+        <v>0.52442299999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.054000</v>
+        <v>983.05399999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.277000</v>
+        <v>-101.277</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>1898.568139</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.527380</v>
+        <v>0.52737999999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.341000</v>
+        <v>994.34100000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-122.170000</v>
+        <v>-122.17</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>1909.319949</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.530367</v>
+        <v>0.53036700000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB6" s="1">
-        <v>-140.353000</v>
+        <v>-140.35300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>1920.616302</v>
+        <v>1920.6163019999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.533505</v>
+        <v>0.53350500000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.987000</v>
+        <v>-222.98699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1931.403299</v>
+        <v>1931.4032990000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.536501</v>
+        <v>0.53650100000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1126.130000</v>
+        <v>1126.1300000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.782000</v>
+        <v>-355.78199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>1942.133779</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.539482</v>
+        <v>0.53948200000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-561.174000</v>
+        <v>-561.17399999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1953.335890</v>
+        <v>1953.3358900000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.542593</v>
+        <v>0.54259299999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1400.190000</v>
+        <v>1400.19</v>
       </c>
       <c r="BV6" s="1">
-        <v>-780.432000</v>
+        <v>-780.43200000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1964.085684</v>
+        <v>1964.0856839999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.545579</v>
+        <v>0.54557900000000004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1558.910000</v>
+        <v>1558.91</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1008.160000</v>
+        <v>-1008.16</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>1975.629616</v>
+        <v>1975.6296159999999</v>
       </c>
       <c r="CD6" s="1">
         <v>0.548786</v>
       </c>
       <c r="CE6" s="1">
-        <v>1958.630000</v>
+        <v>1958.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1540.270000</v>
+        <v>-1540.27</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>1804.998358</v>
+        <v>1804.9983580000001</v>
       </c>
       <c r="B7" s="1">
-        <v>0.501388</v>
+        <v>0.50138799999999994</v>
       </c>
       <c r="C7" s="1">
-        <v>901.300000</v>
+        <v>901.3</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.851000</v>
+        <v>-197.851</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1815.331049</v>
+        <v>1815.3310489999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.504259</v>
+        <v>0.50425900000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.949000</v>
+        <v>917.94899999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.599000</v>
+        <v>-167.59899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1825.788672</v>
+        <v>1825.7886719999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.507164</v>
+        <v>0.50716399999999995</v>
       </c>
       <c r="M7" s="1">
-        <v>940.470000</v>
+        <v>940.47</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.116000</v>
+        <v>-120.116</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1836.076719</v>
+        <v>1836.0767189999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.510021</v>
+        <v>0.51002099999999995</v>
       </c>
       <c r="R7" s="1">
-        <v>947.301000</v>
+        <v>947.30100000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.526000</v>
+        <v>-104.526</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1846.587421</v>
+        <v>1846.5874209999999</v>
       </c>
       <c r="V7" s="1">
-        <v>0.512941</v>
+        <v>0.51294099999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>953.788000</v>
+        <v>953.78800000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.398400</v>
+        <v>-90.398399999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1857.029682</v>
+        <v>1857.0296820000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.515842</v>
+        <v>0.51584200000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.039000</v>
+        <v>961.03899999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.501800</v>
+        <v>-80.501800000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>1867.503238</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.518751</v>
+        <v>0.51875099999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.007000</v>
+        <v>966.00699999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.719200</v>
+        <v>-79.719200000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>1877.648406</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.521569</v>
+        <v>0.52156899999999995</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.917000</v>
+        <v>973.91700000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-86.947200</v>
+        <v>-86.947199999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>1888.285114</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.524524</v>
+        <v>0.52452399999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.086000</v>
+        <v>983.08600000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.274000</v>
+        <v>-101.274</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>1899.287834</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.527580</v>
+        <v>0.52758000000000005</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.359000</v>
+        <v>994.35900000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-122.155000</v>
+        <v>-122.155</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>1910.038620</v>
+        <v>1910.03862</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.530566</v>
+        <v>0.53056599999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB7" s="1">
-        <v>-140.376000</v>
+        <v>-140.376</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>1921.005662</v>
@@ -1931,619 +2347,619 @@
         <v>0.533613</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.360000</v>
+        <v>1048.3599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.962000</v>
+        <v>-222.96199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1931.774800</v>
+        <v>1931.7747999999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.536604</v>
+        <v>0.53660399999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1126.130000</v>
+        <v>1126.1300000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.824000</v>
+        <v>-355.82400000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>1942.533521</v>
+        <v>1942.5335210000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.539593</v>
+        <v>0.53959299999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-561.128000</v>
+        <v>-561.12800000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1954.069505</v>
+        <v>1954.0695049999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.542797</v>
+        <v>0.54279699999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>1400.080000</v>
+        <v>1400.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-780.440000</v>
+        <v>-780.44</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1964.534565</v>
+        <v>1964.5345649999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.545704</v>
+        <v>0.54570399999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1558.800000</v>
+        <v>1558.8</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1008.110000</v>
+        <v>-1008.11</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>1975.857275</v>
+        <v>1975.8572750000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.548849</v>
+        <v>0.54884900000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1958.480000</v>
+        <v>1958.48</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1540.010000</v>
+        <v>-1540.01</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>1805.339638</v>
+        <v>1805.3396379999999</v>
       </c>
       <c r="B8" s="1">
-        <v>0.501483</v>
+        <v>0.50148300000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>901.219000</v>
+        <v>901.21900000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.805000</v>
+        <v>-197.80500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1815.748152</v>
+        <v>1815.7481519999999</v>
       </c>
       <c r="G8" s="1">
-        <v>0.504374</v>
+        <v>0.50437399999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>917.922000</v>
+        <v>917.92200000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.504000</v>
+        <v>-167.50399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>1826.205876</v>
       </c>
       <c r="L8" s="1">
-        <v>0.507279</v>
+        <v>0.50727900000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>940.439000</v>
+        <v>940.43899999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.111000</v>
+        <v>-120.111</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1836.350509</v>
+        <v>1836.3505090000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.510097</v>
+        <v>0.51009700000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>947.308000</v>
+        <v>947.30799999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.545000</v>
+        <v>-104.545</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>1846.879551</v>
       </c>
       <c r="V8" s="1">
-        <v>0.513022</v>
+        <v>0.51302199999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>953.774000</v>
+        <v>953.774</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.392900</v>
+        <v>-90.392899999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>1857.376385</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.515938</v>
+        <v>0.51593800000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.005000</v>
+        <v>961.005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.441400</v>
+        <v>-80.441400000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1867.846964</v>
+        <v>1867.8469640000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.518846</v>
+        <v>0.51884600000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.020000</v>
+        <v>966.02</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.688000</v>
+        <v>-79.688000000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1878.002022</v>
+        <v>1878.0020219999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.521667</v>
+        <v>0.52166699999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.927000</v>
+        <v>973.92700000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-86.920400</v>
+        <v>-86.920400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>1889.004313</v>
+        <v>1889.0043129999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.524723</v>
+        <v>0.52472300000000005</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.069000</v>
+        <v>983.06899999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.269000</v>
+        <v>-101.26900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>1899.679177</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.527689</v>
+        <v>0.52768899999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.365000</v>
+        <v>994.36500000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-122.148000</v>
+        <v>-122.148</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>1910.394251</v>
+        <v>1910.3942509999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.530665</v>
+        <v>0.53066500000000005</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB8" s="1">
-        <v>-140.382000</v>
+        <v>-140.38200000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>1921.388572</v>
+        <v>1921.3885720000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.533719</v>
+        <v>0.53371900000000005</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.983000</v>
+        <v>-222.983</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>1932.691437</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.536859</v>
+        <v>0.53685899999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1126.150000</v>
+        <v>1126.1500000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.785000</v>
+        <v>-355.78500000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>1943.259664</v>
+        <v>1943.2596639999999</v>
       </c>
       <c r="BO8" s="1">
         <v>0.539794</v>
       </c>
       <c r="BP8" s="1">
-        <v>1255.060000</v>
+        <v>1255.06</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-561.122000</v>
+        <v>-561.12199999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>1954.211228</v>
+        <v>1954.2112279999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.542836</v>
+        <v>0.54283599999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1400.100000</v>
+        <v>1400.1</v>
       </c>
       <c r="BV8" s="1">
-        <v>-780.521000</v>
+        <v>-780.52099999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1964.895155</v>
+        <v>1964.8951549999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.545804</v>
+        <v>0.54580399999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1558.860000</v>
+        <v>1558.86</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1008.020000</v>
+        <v>-1008.02</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>1976.377077</v>
+        <v>1976.3770770000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.548994</v>
+        <v>0.54899399999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1959.960000</v>
+        <v>1959.96</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1540.060000</v>
+        <v>-1540.06</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>1805.757238</v>
+        <v>1805.7572379999999</v>
       </c>
       <c r="B9" s="1">
-        <v>0.501599</v>
+        <v>0.50159900000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>901.207000</v>
+        <v>901.20699999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.774000</v>
+        <v>-197.774</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1816.027927</v>
+        <v>1816.0279270000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.504452</v>
+        <v>0.50445200000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>917.859000</v>
+        <v>917.85900000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.584000</v>
+        <v>-167.584</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1826.481578</v>
+        <v>1826.4815779999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.507356</v>
+        <v>0.50735600000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>940.676000</v>
+        <v>940.67600000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.288000</v>
+        <v>-120.288</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>1836.701646</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.510195</v>
+        <v>0.51019499999999995</v>
       </c>
       <c r="R9" s="1">
-        <v>947.352000</v>
+        <v>947.35199999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.548000</v>
+        <v>-104.548</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>1847.225263</v>
       </c>
       <c r="V9" s="1">
-        <v>0.513118</v>
+        <v>0.51311799999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>953.818000</v>
+        <v>953.81799999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.382900</v>
+        <v>-90.382900000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>1857.727085</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.516035</v>
+        <v>0.51603500000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.084000</v>
+        <v>961.08399999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.414500</v>
+        <v>-80.414500000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1868.530450</v>
+        <v>1868.53045</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.519036</v>
+        <v>0.51903600000000005</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.996000</v>
+        <v>965.99599999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.690400</v>
+        <v>-79.690399999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1878.699430</v>
+        <v>1878.6994299999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.521861</v>
+        <v>0.52186100000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.929000</v>
+        <v>973.92899999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-86.924600</v>
+        <v>-86.924599999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1889.366361</v>
+        <v>1889.3663610000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.524824</v>
+        <v>0.52482399999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.067000</v>
+        <v>983.06700000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.288000</v>
+        <v>-101.288</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>1900.044766</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.527790</v>
+        <v>0.52778999999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.329000</v>
+        <v>994.32899999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-122.162000</v>
+        <v>-122.16200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>1910.755835</v>
+        <v>1910.7558349999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.530766</v>
+        <v>0.53076599999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB9" s="1">
-        <v>-140.372000</v>
+        <v>-140.37200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>1922.048253</v>
+        <v>1922.0482529999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.533902</v>
+        <v>0.53390199999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.959000</v>
+        <v>-222.959</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>1932.820861</v>
+        <v>1932.8208609999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.536895</v>
+        <v>0.53689500000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1126.170000</v>
+        <v>1126.17</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.798000</v>
+        <v>-355.798</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>1943.376719</v>
+        <v>1943.3767190000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.539827</v>
+        <v>0.53982699999999995</v>
       </c>
       <c r="BP9" s="1">
-        <v>1255.040000</v>
+        <v>1255.04</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-561.136000</v>
+        <v>-561.13599999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>1954.624993</v>
+        <v>1954.6249929999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.542951</v>
+        <v>0.54295099999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1399.970000</v>
+        <v>1399.97</v>
       </c>
       <c r="BV9" s="1">
-        <v>-780.561000</v>
+        <v>-780.56100000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>1965.316290</v>
+        <v>1965.31629</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.545921</v>
+        <v>0.54592099999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1558.850000</v>
+        <v>1558.85</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1008.150000</v>
+        <v>-1008.15</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1976.894371</v>
+        <v>1976.8943710000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.549137</v>
+        <v>0.54913699999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1959.330000</v>
+        <v>1959.33</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1540.330000</v>
+        <v>-1540.33</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>1806.038965</v>
       </c>
       <c r="B10" s="1">
-        <v>0.501677</v>
+        <v>0.50167700000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>901.154000</v>
+        <v>901.154</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.733000</v>
+        <v>-197.733</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1816.371159</v>
@@ -2552,241 +2968,241 @@
         <v>0.504548</v>
       </c>
       <c r="H10" s="1">
-        <v>917.832000</v>
+        <v>917.83199999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.551000</v>
+        <v>-167.55099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>1826.834233</v>
       </c>
       <c r="L10" s="1">
-        <v>0.507454</v>
+        <v>0.50745399999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>940.387000</v>
+        <v>940.38699999999994</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.118000</v>
+        <v>-120.11799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1837.050860</v>
+        <v>1837.0508600000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.510292</v>
+        <v>0.51029199999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>947.330000</v>
+        <v>947.33</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.604000</v>
+        <v>-104.604</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>1847.567503</v>
       </c>
       <c r="V10" s="1">
-        <v>0.513213</v>
+        <v>0.51321300000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>953.797000</v>
+        <v>953.79700000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.445700</v>
+        <v>-90.445700000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>1858.422945</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.516229</v>
+        <v>0.51622900000000005</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.013000</v>
+        <v>961.01300000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.375500</v>
+        <v>-80.375500000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>1868.875634</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.519132</v>
+        <v>0.51913200000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.006000</v>
+        <v>966.00599999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.680100</v>
+        <v>-79.680099999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1879.046630</v>
+        <v>1879.0466300000001</v>
       </c>
       <c r="AK10" s="1">
         <v>0.521957</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.930000</v>
+        <v>973.93</v>
       </c>
       <c r="AM10" s="1">
-        <v>-86.936700</v>
+        <v>-86.936700000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>1889.725462</v>
+        <v>1889.7254620000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.524924</v>
+        <v>0.52492399999999995</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.060000</v>
+        <v>983.06</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.305000</v>
+        <v>-101.30500000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>1900.719288</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.527978</v>
+        <v>0.52797799999999995</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.376000</v>
+        <v>994.37599999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-122.170000</v>
+        <v>-122.17</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>1911.412538</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.530948</v>
+        <v>0.53094799999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB10" s="1">
-        <v>-140.370000</v>
+        <v>-140.37</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1922.468395</v>
+        <v>1922.4683950000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.534019</v>
+        <v>0.53401900000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.360000</v>
+        <v>1048.3599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.980000</v>
+        <v>-222.98</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>1933.222126</v>
+        <v>1933.2221259999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.537006</v>
+        <v>0.53700599999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1126.130000</v>
+        <v>1126.1300000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.788000</v>
+        <v>-355.78800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>1943.770576</v>
+        <v>1943.7705759999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.539936</v>
+        <v>0.53993599999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1255.040000</v>
+        <v>1255.04</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-561.113000</v>
+        <v>-561.11300000000006</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>1955.052571</v>
+        <v>1955.0525709999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.543070</v>
+        <v>0.54307000000000005</v>
       </c>
       <c r="BU10" s="1">
-        <v>1399.910000</v>
+        <v>1399.91</v>
       </c>
       <c r="BV10" s="1">
-        <v>-780.487000</v>
+        <v>-780.48699999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>1965.737363</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.546038</v>
+        <v>0.54603800000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1558.940000</v>
+        <v>1558.94</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1008.110000</v>
+        <v>-1008.11</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>1977.445459</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.549290</v>
+        <v>0.54928999999999994</v>
       </c>
       <c r="CE10" s="1">
-        <v>1958.780000</v>
+        <v>1958.78</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1539.460000</v>
+        <v>-1539.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>1806.380212</v>
       </c>
@@ -2794,784 +3210,784 @@
         <v>0.501772</v>
       </c>
       <c r="C11" s="1">
-        <v>901.062000</v>
+        <v>901.06200000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.849000</v>
+        <v>-197.84899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1816.715351</v>
+        <v>1816.7153510000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.504643</v>
+        <v>0.50464299999999995</v>
       </c>
       <c r="H11" s="1">
-        <v>917.970000</v>
+        <v>917.97</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.820000</v>
+        <v>-167.82</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>1827.179977</v>
       </c>
       <c r="L11" s="1">
-        <v>0.507550</v>
+        <v>0.50754999999999995</v>
       </c>
       <c r="M11" s="1">
-        <v>940.552000</v>
+        <v>940.55200000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.083000</v>
+        <v>-120.083</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1837.744235</v>
+        <v>1837.7442349999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.510485</v>
+        <v>0.51048499999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>947.292000</v>
+        <v>947.29200000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.576000</v>
+        <v>-104.57599999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>1848.254463</v>
       </c>
       <c r="V11" s="1">
-        <v>0.513404</v>
+        <v>0.51340399999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>953.786000</v>
+        <v>953.78599999999994</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.447700</v>
+        <v>-90.447699999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1858.772129</v>
+        <v>1858.7721289999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.516326</v>
+        <v>0.51632599999999995</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.051000</v>
+        <v>961.05100000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.395800</v>
+        <v>-80.395799999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1869.217890</v>
+        <v>1869.2178899999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.519227</v>
+        <v>0.51922699999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.025000</v>
+        <v>966.02499999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.741900</v>
+        <v>-79.741900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1879.393829</v>
+        <v>1879.3938290000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.522054</v>
+        <v>0.52205400000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.934000</v>
+        <v>973.93399999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-86.906300</v>
+        <v>-86.906300000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1890.394567</v>
+        <v>1890.3945670000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.525110</v>
+        <v>0.52510999999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.037000</v>
+        <v>983.03700000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.293000</v>
+        <v>-101.29300000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>1901.172631</v>
+        <v>1901.1726309999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.528104</v>
+        <v>0.52810400000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.359000</v>
+        <v>994.35900000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-122.143000</v>
+        <v>-122.143</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>1911.829707</v>
+        <v>1911.8297070000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.531064</v>
+        <v>0.53106399999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.860000</v>
+        <v>1003.86</v>
       </c>
       <c r="BB11" s="1">
-        <v>-140.349000</v>
+        <v>-140.34899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>1922.859706</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.534128</v>
+        <v>0.53412800000000005</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.320000</v>
+        <v>1048.32</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.977000</v>
+        <v>-222.977</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>1933.599612</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.537111</v>
+        <v>0.53711100000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1126.160000</v>
+        <v>1126.1600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.797000</v>
+        <v>-355.79700000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>1944.193630</v>
+        <v>1944.19363</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.540054</v>
+        <v>0.54005400000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-561.182000</v>
+        <v>-561.18200000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>1955.471200</v>
+        <v>1955.4712</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.543186</v>
+        <v>0.54318599999999995</v>
       </c>
       <c r="BU11" s="1">
-        <v>1399.830000</v>
+        <v>1399.83</v>
       </c>
       <c r="BV11" s="1">
-        <v>-780.523000</v>
+        <v>-780.52300000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>1966.191697</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.546164</v>
+        <v>0.54616399999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1558.910000</v>
+        <v>1558.91</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1008.260000</v>
+        <v>-1008.26</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1977.977634</v>
+        <v>1977.9776340000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.549438</v>
+        <v>0.54943799999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1959.670000</v>
+        <v>1959.67</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1540.100000</v>
+        <v>-1540.1</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>1806.721956</v>
+        <v>1806.7219560000001</v>
       </c>
       <c r="B12" s="1">
-        <v>0.501867</v>
+        <v>0.50186699999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>901.341000</v>
+        <v>901.34100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.817000</v>
+        <v>-197.81700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1817.404326</v>
+        <v>1817.4043260000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.504835</v>
+        <v>0.50483500000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>917.922000</v>
+        <v>917.92200000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.720000</v>
+        <v>-167.72</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>1827.873848</v>
       </c>
       <c r="L12" s="1">
-        <v>0.507743</v>
+        <v>0.50774300000000006</v>
       </c>
       <c r="M12" s="1">
-        <v>940.575000</v>
+        <v>940.57500000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.201000</v>
+        <v>-120.20099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>1838.095403</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.510582</v>
+        <v>0.51058199999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>947.314000</v>
+        <v>947.31399999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.551000</v>
+        <v>-104.551</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1848.595710</v>
+        <v>1848.5957100000001</v>
       </c>
       <c r="V12" s="1">
-        <v>0.513499</v>
+        <v>0.51349900000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>953.756000</v>
+        <v>953.75599999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.413100</v>
+        <v>-90.4131</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>1859.117376</v>
+        <v>1859.1173759999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.516421</v>
+        <v>0.51642100000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.124000</v>
+        <v>961.12400000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.376700</v>
+        <v>-80.3767</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1869.859697</v>
+        <v>1869.8596970000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.519405</v>
+        <v>0.51940500000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.025000</v>
+        <v>966.02499999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.684600</v>
+        <v>-79.684600000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>1880.064883</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.522240</v>
+        <v>0.52224000000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.926000</v>
+        <v>973.92600000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-86.906900</v>
+        <v>-86.906899999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>1890.833525</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.525232</v>
+        <v>0.52523200000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.075000</v>
+        <v>983.07500000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.291000</v>
+        <v>-101.291</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>1901.539203</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.528205</v>
+        <v>0.52820500000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.358000</v>
+        <v>994.35799999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-122.160000</v>
+        <v>-122.16</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>1912.217546</v>
+        <v>1912.2175460000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.531172</v>
+        <v>0.53117199999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB12" s="1">
-        <v>-140.367000</v>
+        <v>-140.36699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>1923.220326</v>
+        <v>1923.2203260000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.534228</v>
+        <v>0.53422800000000004</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.968000</v>
+        <v>-222.96799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>1934.030108</v>
+        <v>1934.0301079999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.537231</v>
+        <v>0.53723100000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1126.140000</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.795000</v>
+        <v>-355.79500000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>1944.611262</v>
+        <v>1944.6112619999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.540170</v>
+        <v>0.54017000000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1255.060000</v>
+        <v>1255.06</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-561.153000</v>
+        <v>-561.15300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>1955.880369</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.543300</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1399.780000</v>
+        <v>1399.78</v>
       </c>
       <c r="BV12" s="1">
-        <v>-780.492000</v>
+        <v>-780.49199999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>1966.640576</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.546289</v>
+        <v>0.54628900000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1558.790000</v>
+        <v>1558.79</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1008.140000</v>
+        <v>-1008.14</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>1978.496466</v>
+        <v>1978.4964660000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.549582</v>
+        <v>0.54958200000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1959.680000</v>
+        <v>1959.68</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1538.660000</v>
+        <v>-1538.66</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>1807.403988</v>
       </c>
       <c r="B13" s="1">
-        <v>0.502057</v>
+        <v>0.50205699999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>901.208000</v>
+        <v>901.20799999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.840000</v>
+        <v>-197.84</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>1817.751493</v>
       </c>
       <c r="G13" s="1">
-        <v>0.504931</v>
+        <v>0.50493100000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>917.943000</v>
+        <v>917.94299999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.656000</v>
+        <v>-167.65600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>1828.218073</v>
       </c>
       <c r="L13" s="1">
-        <v>0.507838</v>
+        <v>0.50783800000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>940.551000</v>
+        <v>940.55100000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.212000</v>
+        <v>-120.212</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1838.445114</v>
+        <v>1838.4451140000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.510679</v>
+        <v>0.51067899999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>947.335000</v>
+        <v>947.33500000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.516000</v>
+        <v>-104.51600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1849.250441</v>
+        <v>1849.2504409999999</v>
       </c>
       <c r="V13" s="1">
-        <v>0.513681</v>
+        <v>0.51368100000000005</v>
       </c>
       <c r="W13" s="1">
-        <v>953.783000</v>
+        <v>953.78300000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.457300</v>
+        <v>-90.457300000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>1859.768127</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.516602</v>
+        <v>0.51660200000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.068000</v>
+        <v>961.06799999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.405300</v>
+        <v>-80.405299999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1870.249553</v>
+        <v>1870.2495530000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.519514</v>
+        <v>0.51951400000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.029000</v>
+        <v>966.029</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.678400</v>
+        <v>-79.678399999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>1880.439897</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.522344</v>
+        <v>0.52234400000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.930000</v>
+        <v>973.93</v>
       </c>
       <c r="AM13" s="1">
-        <v>-86.929300</v>
+        <v>-86.929299999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>1891.196100</v>
+        <v>1891.1960999999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.525332</v>
+        <v>0.52533200000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.061000</v>
+        <v>983.06100000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.273000</v>
+        <v>-101.273</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>1901.902742</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.528306</v>
+        <v>0.52830600000000005</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.362000</v>
+        <v>994.36199999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-122.171000</v>
+        <v>-122.17100000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>1912.578136</v>
+        <v>1912.5781360000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.531272</v>
+        <v>0.53127199999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.860000</v>
+        <v>1003.86</v>
       </c>
       <c r="BB13" s="1">
-        <v>-140.386000</v>
+        <v>-140.386</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1923.632473</v>
+        <v>1923.6324729999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.534342</v>
+        <v>0.53434199999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.956000</v>
+        <v>-222.95599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1934.346281</v>
+        <v>1934.3462810000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.537318</v>
+        <v>0.53731799999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1126.120000</v>
+        <v>1126.1199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.813000</v>
+        <v>-355.81299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>1945.014013</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.540282</v>
+        <v>0.54028200000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1255.010000</v>
+        <v>1255.01</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-561.172000</v>
+        <v>-561.17200000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>1956.296543</v>
+        <v>1956.2965429999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.543416</v>
+        <v>0.54341600000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1399.700000</v>
+        <v>1399.7</v>
       </c>
       <c r="BV13" s="1">
-        <v>-780.517000</v>
+        <v>-780.51700000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>1967.069153</v>
+        <v>1967.0691529999999</v>
       </c>
       <c r="BY13" s="1">
         <v>0.546408</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1558.980000</v>
+        <v>1558.98</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1008.170000</v>
+        <v>-1008.17</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>1979.034608</v>
+        <v>1979.0346079999999</v>
       </c>
       <c r="CD13" s="1">
         <v>0.549732</v>
       </c>
       <c r="CE13" s="1">
-        <v>1958.720000</v>
+        <v>1958.72</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1540.610000</v>
+        <v>-1540.61</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>1807.749667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.502153</v>
+        <v>0.50215299999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>901.159000</v>
+        <v>901.15899999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.857000</v>
+        <v>-197.857</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>1818.096736</v>
@@ -3580,13 +3996,13 @@
         <v>0.505027</v>
       </c>
       <c r="H14" s="1">
-        <v>917.942000</v>
+        <v>917.94200000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.660000</v>
+        <v>-167.66</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1828.560839</v>
@@ -3595,226 +4011,226 @@
         <v>0.507934</v>
       </c>
       <c r="M14" s="1">
-        <v>940.565000</v>
+        <v>940.56500000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.134000</v>
+        <v>-120.134</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>1839.099802</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.510861</v>
+        <v>0.51086100000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>947.339000</v>
+        <v>947.33900000000006</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.556000</v>
+        <v>-104.556</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>1849.627884</v>
       </c>
       <c r="V14" s="1">
-        <v>0.513786</v>
+        <v>0.51378599999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>953.804000</v>
+        <v>953.80399999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.450300</v>
+        <v>-90.450299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>1860.167902</v>
+        <v>1860.1679019999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.516713</v>
+        <v>0.51671299999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.049000</v>
+        <v>961.04899999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.506500</v>
+        <v>-80.506500000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>1870.590801</v>
+        <v>1870.5908010000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.519609</v>
+        <v>0.51960899999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.055000</v>
+        <v>966.05499999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.712700</v>
+        <v>-79.712699999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>1880.788055</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.522441</v>
+        <v>0.52244100000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.927000</v>
+        <v>973.92700000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-86.930000</v>
+        <v>-86.93</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>1891.552265</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.525431</v>
+        <v>0.52543099999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.088000</v>
+        <v>983.08799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.284000</v>
+        <v>-101.28400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>1902.315910</v>
+        <v>1902.31591</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.528421</v>
+        <v>0.52842100000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.378000</v>
+        <v>994.37800000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-122.153000</v>
+        <v>-122.15300000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>1912.997273</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.531388</v>
+        <v>0.53138799999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB14" s="1">
-        <v>-140.381000</v>
+        <v>-140.381</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>1923.942969</v>
+        <v>1923.9429689999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.534429</v>
+        <v>0.53442900000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.330000</v>
+        <v>1048.33</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.982000</v>
+        <v>-222.982</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1934.747324</v>
+        <v>1934.7473239999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.537430</v>
+        <v>0.53742999999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1126.130000</v>
+        <v>1126.1300000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.791000</v>
+        <v>-355.791</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>1945.409821</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.540392</v>
+        <v>0.54039199999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1254.990000</v>
+        <v>1254.99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-561.148000</v>
+        <v>-561.14800000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>1956.707695</v>
+        <v>1956.7076950000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.543530</v>
+        <v>0.54352999999999996</v>
       </c>
       <c r="BU14" s="1">
-        <v>1399.630000</v>
+        <v>1399.63</v>
       </c>
       <c r="BV14" s="1">
-        <v>-780.367000</v>
+        <v>-780.36699999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>1967.492706</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.546526</v>
+        <v>0.54652599999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1558.850000</v>
+        <v>1558.85</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1008.210000</v>
+        <v>-1008.21</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>1979.577728</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.549883</v>
+        <v>0.54988300000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1960.880000</v>
+        <v>1960.88</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1539.700000</v>
+        <v>-1539.7</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>1808.090418</v>
       </c>
@@ -3822,527 +4238,527 @@
         <v>0.502247</v>
       </c>
       <c r="C15" s="1">
-        <v>901.181000</v>
+        <v>901.18100000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.934000</v>
+        <v>-197.934</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1818.742500</v>
+        <v>1818.7425000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.505206</v>
+        <v>0.50520600000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>917.958000</v>
+        <v>917.95799999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.704000</v>
+        <v>-167.70400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>1829.205111</v>
       </c>
       <c r="L15" s="1">
-        <v>0.508113</v>
+        <v>0.50811300000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>940.482000</v>
+        <v>940.48199999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.165000</v>
+        <v>-120.16500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>1839.489658</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.510969</v>
+        <v>0.51096900000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.336000</v>
+        <v>947.33600000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.569000</v>
+        <v>-104.569</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1849.971611</v>
+        <v>1849.9716109999999</v>
       </c>
       <c r="V15" s="1">
-        <v>0.513881</v>
+        <v>0.51388100000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>953.830000</v>
+        <v>953.83</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.424000</v>
+        <v>-90.424000000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>1860.512589</v>
+        <v>1860.5125889999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.516809</v>
+        <v>0.51680899999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.028000</v>
+        <v>961.02800000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.528000</v>
+        <v>-80.528000000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>1870.937007</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.519705</v>
+        <v>0.51970499999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.981000</v>
+        <v>965.98099999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.698600</v>
+        <v>-79.698599999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1881.137730</v>
+        <v>1881.1377299999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.522538</v>
+        <v>0.52253799999999995</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.920000</v>
+        <v>973.92</v>
       </c>
       <c r="AM15" s="1">
-        <v>-86.955800</v>
+        <v>-86.955799999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>1891.976307</v>
+        <v>1891.9763069999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.525549</v>
+        <v>0.52554900000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.073000</v>
+        <v>983.07299999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.287000</v>
+        <v>-101.28700000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>1902.632438</v>
+        <v>1902.6324380000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.528509</v>
+        <v>0.52850900000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.337000</v>
+        <v>994.33699999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-122.172000</v>
+        <v>-122.172</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>1913.296381</v>
+        <v>1913.2963810000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.531471</v>
+        <v>0.53147100000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB15" s="1">
-        <v>-140.376000</v>
+        <v>-140.376</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>1924.305048</v>
+        <v>1924.3050479999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.534529</v>
+        <v>0.53452900000000003</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.330000</v>
+        <v>1048.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.976000</v>
+        <v>-222.976</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1935.117339</v>
+        <v>1935.1173389999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.537533</v>
+        <v>0.53753300000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1126.120000</v>
+        <v>1126.1199999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.817000</v>
+        <v>-355.81700000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>1945.832414</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.540509</v>
+        <v>0.54050900000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1255.040000</v>
+        <v>1255.04</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-561.172000</v>
+        <v>-561.17200000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>1957.124861</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.543646</v>
+        <v>0.54364599999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>1399.650000</v>
+        <v>1399.65</v>
       </c>
       <c r="BV15" s="1">
-        <v>-780.317000</v>
+        <v>-780.31700000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>1967.915791</v>
+        <v>1967.9157909999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.546643</v>
+        <v>0.54664299999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1558.920000</v>
+        <v>1558.92</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1008.220000</v>
+        <v>-1008.22</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>1980.115925</v>
+        <v>1980.1159250000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.550032</v>
+        <v>0.55003199999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1958.440000</v>
+        <v>1958.44</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1538.960000</v>
+        <v>-1538.96</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>1808.730291</v>
+        <v>1808.7302910000001</v>
       </c>
       <c r="B16" s="1">
-        <v>0.502425</v>
+        <v>0.50242500000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>901.239000</v>
+        <v>901.23900000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.789000</v>
+        <v>-197.78899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>1819.127428</v>
       </c>
       <c r="G16" s="1">
-        <v>0.505313</v>
+        <v>0.50531300000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>917.876000</v>
+        <v>917.87599999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.540000</v>
+        <v>-167.54</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1829.599926</v>
+        <v>1829.5999260000001</v>
       </c>
       <c r="L16" s="1">
-        <v>0.508222</v>
+        <v>0.50822199999999995</v>
       </c>
       <c r="M16" s="1">
-        <v>940.786000</v>
+        <v>940.78599999999994</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.106000</v>
+        <v>-120.10599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1839.835864</v>
+        <v>1839.8358639999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.511066</v>
+        <v>0.51106600000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>947.313000</v>
+        <v>947.31299999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.594000</v>
+        <v>-104.59399999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1850.315866</v>
+        <v>1850.3158659999999</v>
       </c>
       <c r="V16" s="1">
-        <v>0.513977</v>
+        <v>0.51397700000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>953.832000</v>
+        <v>953.83199999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.463700</v>
+        <v>-90.463700000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>1861.083020</v>
+        <v>1861.08302</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.516968</v>
+        <v>0.51696799999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.945000</v>
+        <v>960.94500000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.451300</v>
+        <v>-80.451300000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1871.346703</v>
+        <v>1871.3467029999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.519819</v>
+        <v>0.51981900000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.984000</v>
+        <v>965.98400000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.693300</v>
+        <v>-79.693299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1881.835136</v>
+        <v>1881.8351359999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.522732</v>
+        <v>0.52273199999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.934000</v>
+        <v>973.93399999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-86.941600</v>
+        <v>-86.941599999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>1892.274899</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.525632</v>
+        <v>0.52563199999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.072000</v>
+        <v>983.072</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.276000</v>
+        <v>-101.276</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>1902.996924</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.528610</v>
+        <v>0.52861000000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.352000</v>
+        <v>994.35199999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-122.164000</v>
+        <v>-122.164</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>1913.654952</v>
+        <v>1913.6549520000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.531571</v>
+        <v>0.53157100000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB16" s="1">
-        <v>-140.386000</v>
+        <v>-140.386</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>1924.665640</v>
+        <v>1924.6656399999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.534629</v>
+        <v>0.53462900000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-223.007000</v>
+        <v>-223.00700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>1935.872250</v>
+        <v>1935.8722499999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.537742</v>
+        <v>0.53774200000000005</v>
       </c>
       <c r="BK16" s="1">
-        <v>1126.150000</v>
+        <v>1126.1500000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.815000</v>
+        <v>-355.815</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>1946.242108</v>
+        <v>1946.2421079999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.540623</v>
+        <v>0.54062299999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-561.170000</v>
+        <v>-561.16999999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>1957.537532</v>
+        <v>1957.5375320000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.543760</v>
+        <v>0.54376000000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1399.590000</v>
+        <v>1399.59</v>
       </c>
       <c r="BV16" s="1">
-        <v>-780.308000</v>
+        <v>-780.30799999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>1968.340871</v>
+        <v>1968.3408710000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.546761</v>
+        <v>0.54676100000000005</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1558.860000</v>
+        <v>1558.86</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1008.100000</v>
+        <v>-1008.1</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>1980.658511</v>
+        <v>1980.6585110000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.550183</v>
+        <v>0.55018299999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1959.450000</v>
+        <v>1959.45</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1540.450000</v>
+        <v>-1540.45</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>1809.112177</v>
       </c>
       <c r="B17" s="1">
-        <v>0.502531</v>
+        <v>0.50253099999999995</v>
       </c>
       <c r="C17" s="1">
-        <v>901.063000</v>
+        <v>901.06299999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.823000</v>
+        <v>-197.82300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>1819.471155</v>
@@ -4351,405 +4767,405 @@
         <v>0.505409</v>
       </c>
       <c r="H17" s="1">
-        <v>917.867000</v>
+        <v>917.86699999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.482000</v>
+        <v>-167.482</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1829.945638</v>
+        <v>1829.9456379999999</v>
       </c>
       <c r="L17" s="1">
-        <v>0.508318</v>
+        <v>0.50831800000000005</v>
       </c>
       <c r="M17" s="1">
-        <v>940.573000</v>
+        <v>940.57299999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.219000</v>
+        <v>-120.21899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1840.187530</v>
+        <v>1840.1875299999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.511163</v>
+        <v>0.51116300000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>947.304000</v>
+        <v>947.30399999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.556000</v>
+        <v>-104.556</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1850.737930</v>
+        <v>1850.73793</v>
       </c>
       <c r="V17" s="1">
-        <v>0.514094</v>
+        <v>0.51409400000000005</v>
       </c>
       <c r="W17" s="1">
-        <v>953.799000</v>
+        <v>953.79899999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.475000</v>
+        <v>-90.474999999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>1861.500127</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.517083</v>
+        <v>0.51708299999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.117000</v>
+        <v>961.11699999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.437300</v>
+        <v>-80.437299999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>1871.644304</v>
+        <v>1871.6443039999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.519901</v>
+        <v>0.51990099999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.991000</v>
+        <v>965.99099999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.707700</v>
+        <v>-79.707700000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1882.184288</v>
+        <v>1882.1842879999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.522829</v>
+        <v>0.52282899999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.939000</v>
+        <v>973.93899999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-86.889700</v>
+        <v>-86.889700000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>1892.633507</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.525732</v>
+        <v>0.52573199999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.081000</v>
+        <v>983.08100000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.294000</v>
+        <v>-101.294</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>1903.360021</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.528711</v>
+        <v>0.52871100000000004</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.339000</v>
+        <v>994.33900000000006</v>
       </c>
       <c r="AW17" s="1">
-        <v>-122.168000</v>
+        <v>-122.16800000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>1914.014092</v>
+        <v>1914.0140919999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>0.531671</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB17" s="1">
-        <v>-140.374000</v>
+        <v>-140.374</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>1925.387324</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.534830</v>
+        <v>0.53483000000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.350000</v>
+        <v>1048.3499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.990000</v>
+        <v>-222.99</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>1936.247225</v>
+        <v>1936.2472250000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.537846</v>
+        <v>0.53784600000000005</v>
       </c>
       <c r="BK17" s="1">
-        <v>1126.120000</v>
+        <v>1126.1199999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.814000</v>
+        <v>-355.81400000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>1946.652795</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.540737</v>
+        <v>0.54073700000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-561.143000</v>
+        <v>-561.14300000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>1957.952185</v>
+        <v>1957.9521850000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.543876</v>
+        <v>0.54387600000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1399.550000</v>
+        <v>1399.55</v>
       </c>
       <c r="BV17" s="1">
-        <v>-780.211000</v>
+        <v>-780.21100000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>1969.061550</v>
+        <v>1969.0615499999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.546962</v>
+        <v>0.54696199999999995</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1558.860000</v>
+        <v>1558.86</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1008.150000</v>
+        <v>-1008.15</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>1981.194685</v>
+        <v>1981.1946849999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.550332</v>
+        <v>0.55033200000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>1960.260000</v>
+        <v>1960.26</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1538.970000</v>
+        <v>-1538.97</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>1809.457891</v>
       </c>
       <c r="B18" s="1">
-        <v>0.502627</v>
+        <v>0.50262700000000005</v>
       </c>
       <c r="C18" s="1">
-        <v>901.080000</v>
+        <v>901.08</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.752000</v>
+        <v>-197.75200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>1819.819315</v>
       </c>
       <c r="G18" s="1">
-        <v>0.505505</v>
+        <v>0.50550499999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>917.775000</v>
+        <v>917.77499999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.631000</v>
+        <v>-167.631</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1830.326565</v>
+        <v>1830.3265650000001</v>
       </c>
       <c r="L18" s="1">
-        <v>0.508424</v>
+        <v>0.50842399999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>940.597000</v>
+        <v>940.59699999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.240000</v>
+        <v>-120.24</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1840.609127</v>
+        <v>1840.6091269999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.511280</v>
+        <v>0.51127999999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>947.304000</v>
+        <v>947.30399999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.550000</v>
+        <v>-104.55</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1851.031589</v>
+        <v>1851.0315889999999</v>
       </c>
       <c r="V18" s="1">
-        <v>0.514175</v>
+        <v>0.51417500000000005</v>
       </c>
       <c r="W18" s="1">
-        <v>953.830000</v>
+        <v>953.83</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.446400</v>
+        <v>-90.446399999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>1861.790284</v>
+        <v>1861.7902839999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.517164</v>
+        <v>0.51716399999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.046000</v>
+        <v>961.04600000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.370300</v>
+        <v>-80.3703</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>1871.989054</v>
+        <v>1871.9890539999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.519997</v>
+        <v>0.51999700000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.009000</v>
+        <v>966.00900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.710400</v>
+        <v>-79.710400000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1882.533472</v>
+        <v>1882.5334720000001</v>
       </c>
       <c r="AK18" s="1">
         <v>0.522926</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.942000</v>
+        <v>973.94200000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-86.939500</v>
+        <v>-86.939499999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>1892.990163</v>
+        <v>1892.9901629999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.525831</v>
+        <v>0.52583100000000005</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.089000</v>
+        <v>983.08900000000006</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.290000</v>
+        <v>-101.29</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1904.098040</v>
+        <v>1904.0980400000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.528916</v>
+        <v>0.52891600000000005</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.350000</v>
+        <v>994.35</v>
       </c>
       <c r="AW18" s="1">
-        <v>-122.169000</v>
+        <v>-122.169</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>1914.734246</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.531871</v>
+        <v>0.53187099999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.860000</v>
+        <v>1003.86</v>
       </c>
       <c r="BB18" s="1">
-        <v>-140.382000</v>
+        <v>-140.38200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>1925.773207</v>
@@ -4758,240 +5174,240 @@
         <v>0.534937</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.971000</v>
+        <v>-222.971</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1936.618728</v>
+        <v>1936.6187279999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.537950</v>
+        <v>0.53795000000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1126.140000</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.787000</v>
+        <v>-355.78699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>1947.051084</v>
+        <v>1947.0510839999999</v>
       </c>
       <c r="BO18" s="1">
         <v>0.540848</v>
       </c>
       <c r="BP18" s="1">
-        <v>1254.990000</v>
+        <v>1254.99</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-561.162000</v>
+        <v>-561.16200000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>1958.671355</v>
+        <v>1958.6713549999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.544075</v>
+        <v>0.54407499999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1399.670000</v>
+        <v>1399.67</v>
       </c>
       <c r="BV18" s="1">
-        <v>-780.144000</v>
+        <v>-780.14400000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>1969.205885</v>
+        <v>1969.2058850000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.547002</v>
+        <v>0.54700199999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1558.880000</v>
+        <v>1558.88</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1008.270000</v>
+        <v>-1008.27</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>1981.737309</v>
+        <v>1981.7373090000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.550483</v>
+        <v>0.55048299999999994</v>
       </c>
       <c r="CE18" s="1">
-        <v>1958.600000</v>
+        <v>1958.6</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1540.190000</v>
+        <v>-1540.19</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>1809.797152</v>
+        <v>1809.7971520000001</v>
       </c>
       <c r="B19" s="1">
-        <v>0.502721</v>
+        <v>0.50272099999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>901.065000</v>
+        <v>901.06500000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.795000</v>
+        <v>-197.79499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>1820.235459</v>
       </c>
       <c r="G19" s="1">
-        <v>0.505621</v>
+        <v>0.50562099999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>918.049000</v>
+        <v>918.04899999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.789000</v>
+        <v>-167.78899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>1830.754117</v>
       </c>
       <c r="L19" s="1">
-        <v>0.508543</v>
+        <v>0.50854299999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>940.725000</v>
+        <v>940.72500000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.143000</v>
+        <v>-120.143</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1840.888140</v>
+        <v>1840.88814</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.511358</v>
+        <v>0.51135799999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>947.318000</v>
+        <v>947.31799999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.527000</v>
+        <v>-104.527</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1851.372313</v>
+        <v>1851.3723130000001</v>
       </c>
       <c r="V19" s="1">
-        <v>0.514270</v>
+        <v>0.51427</v>
       </c>
       <c r="W19" s="1">
-        <v>953.830000</v>
+        <v>953.83</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.447000</v>
+        <v>-90.447000000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>1862.142940</v>
+        <v>1862.14294</v>
       </c>
       <c r="AA19" s="1">
         <v>0.517262</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.003000</v>
+        <v>961.00300000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.504100</v>
+        <v>-80.504099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>1872.331759</v>
+        <v>1872.3317589999999</v>
       </c>
       <c r="AF19" s="1">
         <v>0.520092</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.004000</v>
+        <v>966.00400000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.658000</v>
+        <v>-79.658000000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1883.230383</v>
+        <v>1883.2303830000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.523120</v>
+        <v>0.52312000000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.927000</v>
+        <v>973.92700000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-86.925100</v>
+        <v>-86.9251</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>1893.719746</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.526033</v>
+        <v>0.52603299999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.063000</v>
+        <v>983.06299999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.282000</v>
+        <v>-101.282</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>1904.476980</v>
+        <v>1904.4769799999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.529021</v>
+        <v>0.52902099999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.365000</v>
+        <v>994.36500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-122.154000</v>
+        <v>-122.154</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>1915.112725</v>
@@ -5000,829 +5416,829 @@
         <v>0.531976</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB19" s="1">
-        <v>-140.369000</v>
+        <v>-140.369</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>1926.158631</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.535044</v>
+        <v>0.53504399999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.310000</v>
+        <v>1048.31</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.982000</v>
+        <v>-222.982</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>1937.303735</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.538140</v>
+        <v>0.53813999999999995</v>
       </c>
       <c r="BK19" s="1">
-        <v>1126.160000</v>
+        <v>1126.1600000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.834000</v>
+        <v>-355.834</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>1947.819883</v>
+        <v>1947.8198829999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.541061</v>
+        <v>0.54106100000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-561.194000</v>
+        <v>-561.19399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>1958.784444</v>
+        <v>1958.7844439999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.544107</v>
+        <v>0.54410700000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1399.570000</v>
+        <v>1399.57</v>
       </c>
       <c r="BV19" s="1">
-        <v>-780.051000</v>
+        <v>-780.05100000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>1969.627517</v>
+        <v>1969.6275169999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.547119</v>
+        <v>0.54711900000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1558.890000</v>
+        <v>1558.89</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1008.140000</v>
+        <v>-1008.14</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>1982.274973</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.550632</v>
+        <v>0.55063200000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1960.360000</v>
+        <v>1960.36</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1539.730000</v>
+        <v>-1539.73</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>1810.215312</v>
       </c>
       <c r="B20" s="1">
-        <v>0.502838</v>
+        <v>0.50283800000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>900.979000</v>
+        <v>900.97900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.783000</v>
+        <v>-197.78299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1820.515203</v>
+        <v>1820.5152029999999</v>
       </c>
       <c r="G20" s="1">
-        <v>0.505699</v>
+        <v>0.50569900000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>917.907000</v>
+        <v>917.90700000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.595000</v>
+        <v>-167.595</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1831.063156</v>
+        <v>1831.0631559999999</v>
       </c>
       <c r="L20" s="1">
         <v>0.508629</v>
       </c>
       <c r="M20" s="1">
-        <v>940.640000</v>
+        <v>940.64</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.288000</v>
+        <v>-120.288</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1841.237062</v>
+        <v>1841.2370619999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.511455</v>
+        <v>0.51145499999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>947.356000</v>
+        <v>947.35599999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.544000</v>
+        <v>-104.544</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1851.717066</v>
+        <v>1851.7170659999999</v>
       </c>
       <c r="V20" s="1">
-        <v>0.514366</v>
+        <v>0.51436599999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>953.789000</v>
+        <v>953.78899999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.439900</v>
+        <v>-90.439899999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1862.488650</v>
+        <v>1862.48865</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.517358</v>
+        <v>0.51735799999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.000000</v>
+        <v>961</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.512400</v>
+        <v>-80.5124</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>1873.021196</v>
+        <v>1873.0211959999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.520284</v>
+        <v>0.52028399999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.008000</v>
+        <v>966.00800000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.693300</v>
+        <v>-79.693299999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1883.576064</v>
+        <v>1883.5760640000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.523216</v>
+        <v>0.52321600000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.926000</v>
+        <v>973.92600000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-86.902100</v>
+        <v>-86.902100000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>1894.099954</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.526139</v>
+        <v>0.52613900000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.090000</v>
+        <v>983.09</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.288000</v>
+        <v>-101.288</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>1904.849970</v>
+        <v>1904.84997</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.529125</v>
+        <v>0.52912499999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.353000</v>
+        <v>994.35299999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-122.171000</v>
+        <v>-122.17100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>1915.788246</v>
+        <v>1915.7882460000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.532163</v>
+        <v>0.53216300000000005</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB20" s="1">
-        <v>-140.379000</v>
+        <v>-140.37899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>1926.831173</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.535231</v>
+        <v>0.53523100000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.320000</v>
+        <v>1048.32</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.977000</v>
+        <v>-222.977</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>1937.415335</v>
+        <v>1937.4153349999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.538171</v>
+        <v>0.53817099999999995</v>
       </c>
       <c r="BK20" s="1">
-        <v>1126.110000</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.817000</v>
+        <v>-355.81700000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>1948.262351</v>
+        <v>1948.2623510000001</v>
       </c>
       <c r="BO20" s="1">
         <v>0.541184</v>
       </c>
       <c r="BP20" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-561.173000</v>
+        <v>-561.173</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>1959.220463</v>
+        <v>1959.2204630000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.544228</v>
+        <v>0.54422800000000005</v>
       </c>
       <c r="BU20" s="1">
-        <v>1399.600000</v>
+        <v>1399.6</v>
       </c>
       <c r="BV20" s="1">
-        <v>-780.050000</v>
+        <v>-780.05</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>1970.052588</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.547237</v>
+        <v>0.54723699999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1558.820000</v>
+        <v>1558.82</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1008.230000</v>
+        <v>-1008.23</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>1982.814156</v>
+        <v>1982.8141559999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.550782</v>
+        <v>0.55078199999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1958.640000</v>
+        <v>1958.64</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1539.140000</v>
+        <v>-1539.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>1810.498495</v>
       </c>
       <c r="B21" s="1">
-        <v>0.502916</v>
+        <v>0.50291600000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>901.067000</v>
+        <v>901.06700000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.825000</v>
+        <v>-197.82499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>1820.856978</v>
       </c>
       <c r="G21" s="1">
-        <v>0.505794</v>
+        <v>0.50579399999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>917.739000</v>
+        <v>917.73900000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.985000</v>
+        <v>-167.98500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>1831.388004</v>
+        <v>1831.3880039999999</v>
       </c>
       <c r="L21" s="1">
-        <v>0.508719</v>
+        <v>0.50871900000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>940.751000</v>
+        <v>940.75099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.190000</v>
+        <v>-120.19</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>1841.585752</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.511552</v>
+        <v>0.51155200000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>947.315000</v>
+        <v>947.31500000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.596000</v>
+        <v>-104.596</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>1852.403002</v>
       </c>
       <c r="V21" s="1">
-        <v>0.514556</v>
+        <v>0.51455600000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>953.825000</v>
+        <v>953.82500000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.470700</v>
+        <v>-90.470699999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>1863.185816</v>
+        <v>1863.1858159999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.517552</v>
+        <v>0.51755200000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.791000</v>
+        <v>960.79100000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.400900</v>
+        <v>-80.400899999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1873.362978</v>
+        <v>1873.3629780000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.520379</v>
+        <v>0.52037900000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.986000</v>
+        <v>965.98599999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.675600</v>
+        <v>-79.675600000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1883.927728</v>
+        <v>1883.9277279999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.523313</v>
+        <v>0.52331300000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.933000</v>
+        <v>973.93299999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-86.925600</v>
+        <v>-86.925600000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>1894.458289</v>
+        <v>1894.4582889999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.526238</v>
+        <v>0.52623799999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.095000</v>
+        <v>983.09500000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.286000</v>
+        <v>-101.286</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>1905.505714</v>
+        <v>1905.5057139999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.529307</v>
+        <v>0.52930699999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.356000</v>
+        <v>994.35599999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-122.152000</v>
+        <v>-122.152</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>1916.205380</v>
+        <v>1916.2053800000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.532279</v>
+        <v>0.53227899999999995</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB21" s="1">
-        <v>-140.373000</v>
+        <v>-140.37299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>1927.240373</v>
+        <v>1927.2403730000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.535345</v>
+        <v>0.53534499999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.985000</v>
+        <v>-222.98500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>1937.783335</v>
+        <v>1937.7833350000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>0.538273</v>
       </c>
       <c r="BK21" s="1">
-        <v>1126.140000</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.792000</v>
+        <v>-355.79199999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>1948.674985</v>
+        <v>1948.6749850000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.541299</v>
+        <v>0.54129899999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1255.080000</v>
+        <v>1255.08</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-561.213000</v>
+        <v>-561.21299999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>1959.632602</v>
+        <v>1959.6326019999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.544342</v>
+        <v>0.54434199999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1399.720000</v>
+        <v>1399.72</v>
       </c>
       <c r="BV21" s="1">
-        <v>-780.002000</v>
+        <v>-780.00199999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>1970.470188</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.547353</v>
+        <v>0.54735299999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1558.850000</v>
+        <v>1558.85</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1008.260000</v>
+        <v>-1008.26</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>1983.358621</v>
+        <v>1983.3586210000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.550933</v>
+        <v>0.55093300000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1959.600000</v>
+        <v>1959.6</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1540.450000</v>
+        <v>-1540.45</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>1810.848175</v>
+        <v>1810.8481750000001</v>
       </c>
       <c r="B22" s="1">
-        <v>0.503013</v>
+        <v>0.50301300000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>900.994000</v>
+        <v>900.99400000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.675000</v>
+        <v>-197.67500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1821.203179</v>
+        <v>1821.2031790000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.505890</v>
+        <v>0.50588999999999995</v>
       </c>
       <c r="H22" s="1">
-        <v>917.835000</v>
+        <v>917.83500000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.008000</v>
+        <v>-168.00800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>1831.944515</v>
+        <v>1831.9445149999999</v>
       </c>
       <c r="L22" s="1">
-        <v>0.508873</v>
+        <v>0.50887300000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>940.577000</v>
+        <v>940.577</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.287000</v>
+        <v>-120.28700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1842.283125</v>
+        <v>1842.2831249999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.511745</v>
+        <v>0.51174500000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>947.267000</v>
+        <v>947.26700000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.572000</v>
+        <v>-104.572</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1852.746728</v>
+        <v>1852.7467280000001</v>
       </c>
       <c r="V22" s="1">
         <v>0.514652</v>
       </c>
       <c r="W22" s="1">
-        <v>953.769000</v>
+        <v>953.76900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.489500</v>
+        <v>-90.489500000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>1863.534256</v>
+        <v>1863.5342559999999</v>
       </c>
       <c r="AA22" s="1">
         <v>0.517648</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.030000</v>
+        <v>961.03</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.527900</v>
+        <v>-80.527900000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>1873.706669</v>
+        <v>1873.7066689999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.520474</v>
+        <v>0.52047399999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.018000</v>
+        <v>966.01800000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.695200</v>
+        <v>-79.6952</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1884.580489</v>
+        <v>1884.5804889999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.523495</v>
+        <v>0.52349500000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.927000</v>
+        <v>973.92700000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-86.953100</v>
+        <v>-86.953100000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>1895.128911</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.526425</v>
+        <v>0.52642500000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.092000</v>
+        <v>983.09199999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.267000</v>
+        <v>-101.267</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>1905.971426</v>
+        <v>1905.9714260000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.529437</v>
+        <v>0.52943700000000005</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.360000</v>
+        <v>994.36</v>
       </c>
       <c r="AW22" s="1">
-        <v>-122.164000</v>
+        <v>-122.164</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>1916.564577</v>
+        <v>1916.5645770000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.532379</v>
+        <v>0.53237900000000005</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB22" s="1">
-        <v>-140.391000</v>
+        <v>-140.39099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>1927.631716</v>
+        <v>1927.6317160000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.535453</v>
+        <v>0.53545299999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.966000</v>
+        <v>-222.96600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>1938.153883</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.538376</v>
+        <v>0.53837599999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1126.130000</v>
+        <v>1126.1300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.809000</v>
+        <v>-355.80900000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>1949.091128</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.541414</v>
+        <v>0.54141399999999995</v>
       </c>
       <c r="BP22" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-561.237000</v>
+        <v>-561.23699999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>1960.049739</v>
@@ -5831,347 +6247,347 @@
         <v>0.544458</v>
       </c>
       <c r="BU22" s="1">
-        <v>1399.830000</v>
+        <v>1399.83</v>
       </c>
       <c r="BV22" s="1">
-        <v>-779.849000</v>
+        <v>-779.84900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>1970.915099</v>
+        <v>1970.9150990000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.547476</v>
+        <v>0.54747599999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1558.960000</v>
+        <v>1558.96</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1008.170000</v>
+        <v>-1008.17</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>1983.895898</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.551082</v>
+        <v>0.55108199999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1960.190000</v>
+        <v>1960.19</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1538.760000</v>
+        <v>-1538.76</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>1811.179534</v>
+        <v>1811.1795340000001</v>
       </c>
       <c r="B23" s="1">
-        <v>0.503105</v>
+        <v>0.50310500000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>900.890000</v>
+        <v>900.89</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.710000</v>
+        <v>-197.71</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1821.892132</v>
+        <v>1821.8921319999999</v>
       </c>
       <c r="G23" s="1">
         <v>0.506081</v>
       </c>
       <c r="H23" s="1">
-        <v>917.867000</v>
+        <v>917.86699999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.934000</v>
+        <v>-167.934</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1832.067523</v>
+        <v>1832.0675229999999</v>
       </c>
       <c r="L23" s="1">
-        <v>0.508908</v>
+        <v>0.50890800000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>940.700000</v>
+        <v>940.7</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.168000</v>
+        <v>-120.16800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>1842.631813</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.511842</v>
+        <v>0.51184200000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>947.285000</v>
+        <v>947.28499999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.572000</v>
+        <v>-104.572</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1853.090487</v>
+        <v>1853.0904869999999</v>
       </c>
       <c r="V23" s="1">
-        <v>0.514747</v>
+        <v>0.51474699999999995</v>
       </c>
       <c r="W23" s="1">
-        <v>953.807000</v>
+        <v>953.80700000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.453100</v>
+        <v>-90.453100000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1863.884889</v>
+        <v>1863.8848889999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.517746</v>
+        <v>0.51774600000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.058000</v>
+        <v>961.05799999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.418400</v>
+        <v>-80.418400000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>1874.359931</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.520656</v>
+        <v>0.52065600000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.003000</v>
+        <v>966.00300000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.690700</v>
+        <v>-79.690700000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1884.970318</v>
+        <v>1884.9703179999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.523603</v>
+        <v>0.52360300000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.921000</v>
+        <v>973.92100000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-86.948600</v>
+        <v>-86.948599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>1895.538574</v>
+        <v>1895.5385739999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.526538</v>
+        <v>0.52653799999999995</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.094000</v>
+        <v>983.09400000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.287000</v>
+        <v>-101.28700000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>1906.335030</v>
+        <v>1906.33503</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.529538</v>
+        <v>0.52953799999999995</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.370000</v>
+        <v>994.37</v>
       </c>
       <c r="AW23" s="1">
-        <v>-122.151000</v>
+        <v>-122.151</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>1916.923586</v>
+        <v>1916.9235859999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.532479</v>
+        <v>0.53247900000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB23" s="1">
-        <v>-140.372000</v>
+        <v>-140.37200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>1927.990853</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.535553</v>
+        <v>0.53555299999999995</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.360000</v>
+        <v>1048.3599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.970000</v>
+        <v>-222.97</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>1938.568501</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.538491</v>
+        <v>0.53849100000000005</v>
       </c>
       <c r="BK23" s="1">
-        <v>1126.140000</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.803000</v>
+        <v>-355.803</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>1949.493911</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.541526</v>
+        <v>0.54152599999999995</v>
       </c>
       <c r="BP23" s="1">
-        <v>1255.010000</v>
+        <v>1255.01</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-561.227000</v>
+        <v>-561.22699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1960.487209</v>
+        <v>1960.4872089999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.544580</v>
+        <v>0.54457999999999995</v>
       </c>
       <c r="BU23" s="1">
-        <v>1399.840000</v>
+        <v>1399.84</v>
       </c>
       <c r="BV23" s="1">
-        <v>-779.919000</v>
+        <v>-779.91899999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>1971.336203</v>
+        <v>1971.3362030000001</v>
       </c>
       <c r="BY23" s="1">
         <v>0.547593</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1559.000000</v>
+        <v>1559</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1008.180000</v>
+        <v>-1008.18</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>1984.439514</v>
+        <v>1984.4395139999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.551233</v>
+        <v>0.55123299999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>1958.480000</v>
+        <v>1958.48</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1540.410000</v>
+        <v>-1540.41</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>1811.865967</v>
       </c>
       <c r="B24" s="1">
-        <v>0.503296</v>
+        <v>0.50329599999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>900.822000</v>
+        <v>900.822</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.681000</v>
+        <v>-197.68100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1822.236847</v>
+        <v>1822.2368469999999</v>
       </c>
       <c r="G24" s="1">
-        <v>0.506177</v>
+        <v>0.50617699999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.756000</v>
+        <v>917.75599999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.069000</v>
+        <v>-168.06899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1832.423187</v>
+        <v>1832.4231870000001</v>
       </c>
       <c r="L24" s="1">
-        <v>0.509006</v>
+        <v>0.50900599999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>940.790000</v>
+        <v>940.79</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.182000</v>
+        <v>-120.182</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>1842.978022</v>
@@ -6180,118 +6596,118 @@
         <v>0.511938</v>
       </c>
       <c r="R24" s="1">
-        <v>947.319000</v>
+        <v>947.31899999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.528000</v>
+        <v>-104.52800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1853.726822</v>
+        <v>1853.7268220000001</v>
       </c>
       <c r="V24" s="1">
-        <v>0.514924</v>
+        <v>0.51492400000000005</v>
       </c>
       <c r="W24" s="1">
-        <v>953.796000</v>
+        <v>953.79600000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.442000</v>
+        <v>-90.441999999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>1864.579288</v>
+        <v>1864.5792879999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.517939</v>
+        <v>0.51793900000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.034000</v>
+        <v>961.03399999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.452500</v>
+        <v>-80.452500000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>1874.738381</v>
+        <v>1874.7383809999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.520761</v>
+        <v>0.52076100000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.012000</v>
+        <v>966.01199999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.684800</v>
+        <v>-79.684799999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>1885.320988</v>
+        <v>1885.3209879999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.523700</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.925000</v>
+        <v>973.92499999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-86.935100</v>
+        <v>-86.935100000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>1895.921982</v>
+        <v>1895.9219820000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.526645</v>
+        <v>0.52664500000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.080000</v>
+        <v>983.08</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.288000</v>
+        <v>-101.288</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>1906.699552</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.529639</v>
+        <v>0.52963899999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.349000</v>
+        <v>994.34900000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-122.158000</v>
+        <v>-122.158</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>1917.336289</v>
+        <v>1917.3362890000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.532593</v>
+        <v>0.53259299999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB24" s="1">
-        <v>-140.366000</v>
+        <v>-140.36600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>1928.402499</v>
@@ -6300,604 +6716,605 @@
         <v>0.535667</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.330000</v>
+        <v>1048.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.979000</v>
+        <v>-222.97900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>1938.907797</v>
+        <v>1938.9077970000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.538585</v>
+        <v>0.53858499999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1126.110000</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.807000</v>
+        <v>-355.80700000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>1949.892167</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.541637</v>
+        <v>0.54163700000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1255.070000</v>
+        <v>1255.07</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-561.199000</v>
+        <v>-561.19899999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>1960.915784</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.544699</v>
+        <v>0.54469900000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1399.840000</v>
+        <v>1399.84</v>
       </c>
       <c r="BV24" s="1">
-        <v>-779.840000</v>
+        <v>-779.84</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>1971.762762</v>
+        <v>1971.7627620000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.547712</v>
+        <v>0.54771199999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1558.890000</v>
+        <v>1558.89</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1008.140000</v>
+        <v>-1008.14</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>1984.975020</v>
+        <v>1984.9750200000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.551382</v>
+        <v>0.55138200000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>1960.670000</v>
+        <v>1960.67</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1539.880000</v>
+        <v>-1539.88</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>1812.206221</v>
+        <v>1812.2062209999999</v>
       </c>
       <c r="B25" s="1">
-        <v>0.503391</v>
+        <v>0.50339100000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>900.786000</v>
+        <v>900.78599999999994</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.753000</v>
+        <v>-197.75299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1822.580544</v>
+        <v>1822.5805439999999</v>
       </c>
       <c r="G25" s="1">
-        <v>0.506272</v>
+        <v>0.50627200000000006</v>
       </c>
       <c r="H25" s="1">
-        <v>917.766000</v>
+        <v>917.76599999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.046000</v>
+        <v>-168.04599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>1833.076916</v>
       </c>
       <c r="L25" s="1">
-        <v>0.509188</v>
+        <v>0.50918799999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>940.617000</v>
+        <v>940.61699999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.067000</v>
+        <v>-120.06699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1843.628771</v>
+        <v>1843.6287709999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.512119</v>
+        <v>0.51211899999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>947.361000</v>
+        <v>947.36099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.530000</v>
+        <v>-104.53</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>1854.121637</v>
       </c>
       <c r="V25" s="1">
-        <v>0.515034</v>
+        <v>0.51503399999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>953.770000</v>
+        <v>953.77</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.420700</v>
+        <v>-90.420699999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>1864.915079</v>
+        <v>1864.9150790000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.518032</v>
+        <v>0.51803200000000005</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.107000</v>
+        <v>961.10699999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.504600</v>
+        <v>-80.504599999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1875.081114</v>
+        <v>1875.0811140000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.520856</v>
+        <v>0.52085599999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.992000</v>
+        <v>965.99199999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.695300</v>
+        <v>-79.695300000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>1885.669222</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.523797</v>
+        <v>0.52379699999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.926000</v>
+        <v>973.92600000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-86.944500</v>
+        <v>-86.944500000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>1896.283161</v>
+        <v>1896.2831610000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.526745</v>
+        <v>0.52674500000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.081000</v>
+        <v>983.08100000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.289000</v>
+        <v>-101.289</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>1907.124159</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.529757</v>
+        <v>0.52975700000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.354000</v>
+        <v>994.35400000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-122.160000</v>
+        <v>-122.16</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>1917.641793</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.532678</v>
+        <v>0.53267799999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB25" s="1">
-        <v>-140.372000</v>
+        <v>-140.37200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>1928.712003</v>
+        <v>1928.7120030000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.535753</v>
+        <v>0.53575300000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.340000</v>
+        <v>1048.3399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.954000</v>
+        <v>-222.95400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>1939.291206</v>
+        <v>1939.2912060000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.538692</v>
+        <v>0.53869199999999995</v>
       </c>
       <c r="BK25" s="1">
-        <v>1126.110000</v>
+        <v>1126.1099999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.821000</v>
+        <v>-355.82100000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>1950.313805</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.541754</v>
+        <v>0.54175399999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1255.040000</v>
+        <v>1255.04</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-561.203000</v>
+        <v>-561.20299999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>1961.327282</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.544813</v>
+        <v>0.54481299999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1399.950000</v>
+        <v>1399.95</v>
       </c>
       <c r="BV25" s="1">
-        <v>-779.926000</v>
+        <v>-779.92600000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>1972.208170</v>
+        <v>1972.2081700000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.547836</v>
+        <v>0.54783599999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1558.790000</v>
+        <v>1558.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1008.260000</v>
+        <v>-1008.26</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>1985.515336</v>
+        <v>1985.5153359999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.551532</v>
+        <v>0.55153200000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1958.910000</v>
+        <v>1958.91</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1539.040000</v>
+        <v>-1539.04</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>1812.548461</v>
+        <v>1812.5484610000001</v>
       </c>
       <c r="B26" s="1">
-        <v>0.503486</v>
+        <v>0.50348599999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>900.940000</v>
+        <v>900.94</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.827000</v>
+        <v>-197.827</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1823.237246</v>
+        <v>1823.2372459999999</v>
       </c>
       <c r="G26" s="1">
-        <v>0.506455</v>
+        <v>0.50645499999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>917.954000</v>
+        <v>917.95399999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.981000</v>
+        <v>-167.98099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>1833.460289</v>
+        <v>1833.4602890000001</v>
       </c>
       <c r="L26" s="1">
-        <v>0.509295</v>
+        <v>0.50929500000000005</v>
       </c>
       <c r="M26" s="1">
-        <v>940.771000</v>
+        <v>940.77099999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.165000</v>
+        <v>-120.16500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>1844.036483</v>
+        <v>1844.0364830000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.512232</v>
+        <v>0.51223200000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>947.344000</v>
+        <v>947.34400000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.587000</v>
+        <v>-104.587</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>1854.465367</v>
       </c>
       <c r="V26" s="1">
-        <v>0.515129</v>
+        <v>0.51512899999999995</v>
       </c>
       <c r="W26" s="1">
-        <v>953.757000</v>
+        <v>953.75699999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.447200</v>
+        <v>-90.447199999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>1865.274679</v>
+        <v>1865.2746790000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.518132</v>
+        <v>0.51813200000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.999000</v>
+        <v>960.99900000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.419100</v>
+        <v>-80.4191</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>1875.428777</v>
+        <v>1875.4287770000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.520952</v>
+        <v>0.52095199999999997</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.027000</v>
+        <v>966.02700000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.680200</v>
+        <v>-79.680199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>1886.086843</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.523913</v>
+        <v>0.52391299999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.903000</v>
+        <v>973.90300000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-86.915500</v>
+        <v>-86.915499999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>1896.712109</v>
+        <v>1896.7121090000001</v>
       </c>
       <c r="AP26" s="1">
         <v>0.526864</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.085000</v>
+        <v>983.08500000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.278000</v>
+        <v>-101.27800000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>1907.430161</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.529842</v>
+        <v>0.52984200000000004</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.370000</v>
+        <v>994.37</v>
       </c>
       <c r="AW26" s="1">
-        <v>-122.177000</v>
+        <v>-122.17700000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>1918.001430</v>
+        <v>1918.00143</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.532778</v>
+        <v>0.53277799999999997</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB26" s="1">
-        <v>-140.375000</v>
+        <v>-140.375</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>1929.074082</v>
+        <v>1929.0740820000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.535854</v>
+        <v>0.53585400000000005</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.330000</v>
+        <v>1048.33</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.984000</v>
+        <v>-222.98400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>1939.680037</v>
+        <v>1939.6800370000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.538800</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="BK26" s="1">
-        <v>1126.150000</v>
+        <v>1126.1500000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.815000</v>
+        <v>-355.815</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>1951.128694</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.541980</v>
+        <v>0.54198000000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1255.030000</v>
+        <v>1255.03</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-561.193000</v>
+        <v>-561.19299999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>1961.757496</v>
+        <v>1961.7574959999999</v>
       </c>
       <c r="BT26" s="1">
         <v>0.544933</v>
       </c>
       <c r="BU26" s="1">
-        <v>1400.040000</v>
+        <v>1400.04</v>
       </c>
       <c r="BV26" s="1">
-        <v>-779.833000</v>
+        <v>-779.83299999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>1972.640681</v>
+        <v>1972.6406810000001</v>
       </c>
       <c r="BY26" s="1">
         <v>0.547956</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1558.930000</v>
+        <v>1558.93</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1008.210000</v>
+        <v>-1008.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>1986.054983</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.551682</v>
+        <v>0.55168200000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1959.230000</v>
+        <v>1959.23</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1540.210000</v>
+        <v>-1540.21</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>